--- a/biology/Médecine/Cavité_nasale/Cavité_nasale.xlsx
+++ b/biology/Médecine/Cavité_nasale/Cavité_nasale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cavit%C3%A9_nasale</t>
+          <t>Cavité_nasale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les cavités nasales ou fosses nasales sont deux espaces séparés par une cloison : le septum nasal. Elles sont situées :
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cavit%C3%A9_nasale</t>
+          <t>Cavité_nasale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,7 +529,9 @@
           <t>Limites</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fosses nasales sont limitées par :
 l'orifice piriforme en avant,
@@ -538,7 +552,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cavit%C3%A9_nasale</t>
+          <t>Cavité_nasale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,7 +570,9 @@
           <t>Vascularisation et innervation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La vascularisation est riche. Elle est assurée par plusieurs sources, d'une part les branches de l'artère carotide externe comme l'artère sphénopalatine ; d'autre part des branches de l'artère carotide interne comme les artères ethmoïdales antérieures et postérieures qui présentent des anastomoses avec le réseau carotidien externe. Chez certains animaux comme les chiens, le lit capillaire passant par les fosses nasales aide à refroidir la circulation sanguine cérébrale.
 L'innervation sensitive provient des deux premières branches du nerf trijumeau.
@@ -571,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cavit%C3%A9_nasale</t>
+          <t>Cavité_nasale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -589,14 +605,51 @@
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur les côtés latéraux on a trois cornets qui offrent une résistance à l'écoulement de l'air et le dirigent vers l'épithélium olfactif en haut.
 Les cornets jouent un rôle majeur dans le processus respiratoire. Une résection excessive de cornets (turbinectomie) peut conduire au syndrome du nez vide (SNV), également connu sous le nom de Empty Nose Syndrome (ENS). Dans le traitement de la déglutition infantile, cet acte chirurgical peut être évité via une modification du comportement lingual au cours des 1500 à 2000 déglutitions salivaires quotidiennes.
 L'organe voméronasal, situé en arrière sur le septum, a un rôle dans la détection de phéromones, excepté chez l'homme où cet organe est vestigial.
 Les cellules ciliées et le mucus sur les parois éliminent de l'air circulant la poussière et les germes. Les cils repoussent le mucus vers le pharynx, où il sera dégluti.
-Rôle des cornets dans le système respiratoire
-Les cornets sont une superposition d'os longs, étroits et courbes (en forme de coquillage étiré), recouverts d'une épaisse couche de tissu, très vascularisée, érectile et glandulaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cavité_nasale</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cavit%C3%A9_nasale</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Fonctions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Rôle des cornets dans le système respiratoire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cornets sont une superposition d'os longs, étroits et courbes (en forme de coquillage étiré), recouverts d'une épaisse couche de tissu, très vascularisée, érectile et glandulaire.
 Ils sont placés latéralement dans les cavités nasales et s'enroulent de façon médiale et vers le bas à l'intérieur des voies respiratoires nasales.
 Il y a trois cornets dans chaque cavité nasale : 
 le cornet inférieur : le plus grand, aussi long que l'index;
@@ -607,7 +660,7 @@
 Ils sont recouverts d'une muqueuse qui dispose d'un réseau d'approvisionnement sanguin et nerveux très riche qui lui donne des capacités d'érection considérables, de turgescence et de décongestion, en réponse aux conditions climatiques et aux besoins sans cesse fluctuants du corps.
 Par exemple, si une personne doit soudainement se mettre à courir pour éviter un danger, les muqueuses des cornets vont automatiquement se rétrécir, permettant ainsi une plus grande absorption d'air à chaque inspiration.
 D'un autre côté, si une personne essaie de se reposer dans un environnement froid et sec, les muqueuses des cornets vont gonfler afin de fournir une surface muqueuse d'exposition à l'air plus importante, garantissant ainsi que tout l'air aspiré par le nez traverse ces tissus et soit suffisamment réchauffé (ajustement à la température corporelle), humidifié (jusqu'à 98 %) et filtré.
-Enfin les muqueuses des cornets (ainsi que celles des sinus) gonflent alternativement d'un côté puis de l'autre (alternance de vasoconstriction et de vasodilatation) toutes les 1 à 5 heures  en moyenne : ce « cycle nasal », constaté chez 80 % de la population adulte, explique qu'une fosse nasale est bouchée tandis que l'autre est dégagée, ce qui favoriserait la perception d'un panel plus large d'odeurs. Lorsqu'on est allongé, ce cycle expliquerait en partie le changement de côté pendant le sommeil[1].
+Enfin les muqueuses des cornets (ainsi que celles des sinus) gonflent alternativement d'un côté puis de l'autre (alternance de vasoconstriction et de vasodilatation) toutes les 1 à 5 heures  en moyenne : ce « cycle nasal », constaté chez 80 % de la population adulte, explique qu'une fosse nasale est bouchée tandis que l'autre est dégagée, ce qui favoriserait la perception d'un panel plus large d'odeurs. Lorsqu'on est allongé, ce cycle expliquerait en partie le changement de côté pendant le sommeil.
 Chez l'enfant et l'adolescent, une amélioration de la perméabilité nasale peut être obtenue par le passage de la déglutition infantile (interpositions linguales) à la déglutition "en dents serrées" (déglutition salivaire fonctionnelle).
 Le filtrage est assuré par une couche mince appelée « épithélium alvéolaire » qui recouvre le tissu érectile des cornets, lui-même appelé « couche endothéliale » ou « lamina propria ».
 Cette couche est faite de cellules à gobelet qui sécrètent le mucus destiné à recouvrir les cavités nasales et transportent le sérum lymphatique contenant des enzymes, des agents anti-bactériens et anti-viraux et jouant un rôle majeur dans la première ligne de défense respiratoire du corps.
@@ -625,37 +678,74 @@
 La majeure partie du flux d'air inhalé voyage dans le méat moyen, entre les cornets inférieurs et les cornets moyens.
 Les cornets moyens sont plus petits et se projettent vers le bas à partir des sinus ethmoïdes. Ils abritent les ouvertures jusqu'aux maxillaires et aux sinus ethmoïdes et agissent comme des tampons d'air pour que les sinus ne soient pas en contact direct avec le flux d'air pressurisé nasal.
 Les cornets supérieurs protègent le bulbe olfactif et sont également innervés avec une multitude de terminaisons nerveuses olfactives qui se prolongent quelque part dans les cornets moyens.
-Fonction phonatoire
-La cavité nasale intervient dans la phonation quand l'abaissement de l’extrémité du voile du palais, ou la luette, permet l'écoulement libre d'une partie de l'air issu du larynx par les fosses nasales[2]. Lorsque l'air s'écoule en majorité par la cavité nasale dans la production d'un son, ce son sera caractérisé comme nasal.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cavit%C3%A9_nasale</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cavité_nasale</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Cavit%C3%A9_nasale</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Fonctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fonction phonatoire</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cavité nasale intervient dans la phonation quand l'abaissement de l’extrémité du voile du palais, ou la luette, permet l'écoulement libre d'une partie de l'air issu du larynx par les fosses nasales. Lorsque l'air s'écoule en majorité par la cavité nasale dans la production d'un son, ce son sera caractérisé comme nasal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cavité_nasale</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cavit%C3%A9_nasale</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Maladies</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Infections virales, cancer, herpès, avec encombrement muqueux
 Rhinite
